--- a/Matrice_Competences_MODELE.xlsx
+++ b/Matrice_Competences_MODELE.xlsx
@@ -1,14 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC3E3DF6-31E6-AA43-A36A-E43ACEFEAAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a901207\Projet_python\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C33D81-BEB4-4F98-B4E9-1452238CD247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Matrice_Competences" sheetId="1" r:id="rId1"/>
+    <sheet name="Matrice Compétences" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,7 +33,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+  <si>
+    <t>Matrice de compétences par catégorie</t>
+  </si>
   <si>
     <t>Consultant</t>
   </si>
@@ -36,38 +44,203 @@
     <t>Bureautique</t>
   </si>
   <si>
-    <t>Développement</t>
+    <t>Langages de programmation</t>
+  </si>
+  <si>
+    <t>Base de données</t>
+  </si>
+  <si>
+    <t>Outils de gestion de projet</t>
+  </si>
+  <si>
+    <t>Systèmes d'exploitation</t>
+  </si>
+  <si>
+    <t>Outils collaboratifs</t>
   </si>
   <si>
     <t>Réseaux</t>
   </si>
   <si>
-    <t>Sécurité</t>
-  </si>
-  <si>
-    <t>Gestion de projet</t>
-  </si>
-  <si>
-    <t>Cloud</t>
-  </si>
-  <si>
-    <t>Base de données</t>
-  </si>
-  <si>
-    <t>Alice</t>
-  </si>
-  <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>Charlie</t>
+    <t>IDE</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>PowerPoint</t>
+  </si>
+  <si>
+    <t>Visio</t>
+  </si>
+  <si>
+    <t>Teams</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>MySQL</t>
+  </si>
+  <si>
+    <t>PostgreSQL</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>SQL Server</t>
+  </si>
+  <si>
+    <t>JIRA</t>
+  </si>
+  <si>
+    <t>MS Project</t>
+  </si>
+  <si>
+    <t>Trello</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>macOS</t>
+  </si>
+  <si>
+    <t>Slack</t>
+  </si>
+  <si>
+    <t>Zoom</t>
+  </si>
+  <si>
+    <t>TCP/IP</t>
+  </si>
+  <si>
+    <t>DNS</t>
+  </si>
+  <si>
+    <t>DHCP</t>
+  </si>
+  <si>
+    <t>VPN</t>
+  </si>
+  <si>
+    <t>Wi-Fi</t>
+  </si>
+  <si>
+    <t>LAN/WAN</t>
+  </si>
+  <si>
+    <t>PyCharm</t>
+  </si>
+  <si>
+    <t>IntelliJ</t>
+  </si>
+  <si>
+    <t>Visual Studio</t>
+  </si>
+  <si>
+    <t>VS Code</t>
+  </si>
+  <si>
+    <t>Eclipse</t>
+  </si>
+  <si>
+    <t>Samira Hamadou</t>
+  </si>
+  <si>
+    <t>Olivier Dutheil</t>
+  </si>
+  <si>
+    <t>Ismael Pérez</t>
+  </si>
+  <si>
+    <t>YANN GOLEBIEWSKI</t>
+  </si>
+  <si>
+    <t>Cédric Gachon</t>
+  </si>
+  <si>
+    <t>Loth Tchuenkam Teto</t>
+  </si>
+  <si>
+    <t>Benjamin Leturque</t>
+  </si>
+  <si>
+    <t>GUY COHALION</t>
+  </si>
+  <si>
+    <t>Hasan Sütyemez</t>
+  </si>
+  <si>
+    <t>SAID HACHIMI</t>
+  </si>
+  <si>
+    <t>KHALED KHARROUBI</t>
+  </si>
+  <si>
+    <t>LAURE GIRARD</t>
+  </si>
+  <si>
+    <t>VIRGIL GOUEZ</t>
+  </si>
+  <si>
+    <t>MORGANE CANO</t>
+  </si>
+  <si>
+    <t>JOHANNE ZADICK</t>
+  </si>
+  <si>
+    <t>Amadou BA</t>
+  </si>
+  <si>
+    <t>Julien De Domenico</t>
+  </si>
+  <si>
+    <t>Niveaux :0- je ne connais pas | 1- Débutant ( je vois ce que c'est ) | 2- En progression ( Je sais faire mais j'ai besoin d'aide ) | 3- Autonome | 4- Expérimenté</t>
+  </si>
+  <si>
+    <t>Power BI</t>
+  </si>
+  <si>
+    <t>Power Query</t>
+  </si>
+  <si>
+    <t>Data Modeling</t>
+  </si>
+  <si>
+    <t>Dashboard Design</t>
+  </si>
+  <si>
+    <t>Data Refresh</t>
+  </si>
+  <si>
+    <t>Power BI Service</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,16 +248,91 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF0047AB"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FFFCE4D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FFD9E1F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FFE2EFDA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE4DFEC"/>
+        <bgColor rgb="FFE4DFEC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAE3F3"/>
+        <bgColor rgb="FFDAE3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor rgb="FFC9DAF8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -92,12 +340,105 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,117 +741,1045 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:AM21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="34" width="18" customWidth="1"/>
+    <col min="35" max="35" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:39" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="21" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="35"/>
+      <c r="AM3" s="35"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A4" s="29"/>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI4" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ4" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK4" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL4" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM4" s="36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="11"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="11"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="11"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="11"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="11"/>
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="11"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="11"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="11"/>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="11"/>
+      <c r="AL18" s="11"/>
+      <c r="AM18" s="11"/>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="11"/>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="11"/>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="10">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C20" s="10">
+        <v>3</v>
+      </c>
+      <c r="D20" s="10">
+        <v>3</v>
+      </c>
+      <c r="E20" s="10">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="F20" s="10">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="G20" s="10">
+        <v>3</v>
+      </c>
+      <c r="H20" s="10">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="I20" s="10">
+        <v>1</v>
+      </c>
+      <c r="J20" s="10">
+        <v>2</v>
+      </c>
+      <c r="K20" s="10">
+        <v>2</v>
+      </c>
+      <c r="L20" s="10">
+        <v>1</v>
+      </c>
+      <c r="M20" s="10">
+        <v>0</v>
+      </c>
+      <c r="N20" s="10">
+        <v>0</v>
+      </c>
+      <c r="O20" s="10">
+        <v>2</v>
+      </c>
+      <c r="P20" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="10">
+        <v>2</v>
+      </c>
+      <c r="R20" s="10">
         <v>3</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
+      <c r="S20" s="10">
+        <v>3</v>
+      </c>
+      <c r="T20" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
+      <c r="U20" s="10">
+        <v>0</v>
+      </c>
+      <c r="V20" s="10">
+        <v>3</v>
+      </c>
+      <c r="W20" s="10">
+        <v>3</v>
+      </c>
+      <c r="X20" s="10">
+        <v>3</v>
+      </c>
+      <c r="Y20" s="10">
+        <v>3</v>
+      </c>
+      <c r="Z20" s="10">
+        <v>3</v>
+      </c>
+      <c r="AA20" s="10">
+        <v>3</v>
+      </c>
+      <c r="AB20" s="10">
+        <v>3</v>
+      </c>
+      <c r="AC20" s="10">
+        <v>3</v>
+      </c>
+      <c r="AD20" s="10">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
+      <c r="AE20" s="10">
         <v>2</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
+      <c r="AF20" s="10">
         <v>2</v>
       </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
+      <c r="AG20" s="10">
         <v>2</v>
       </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
+      <c r="AH20" s="10">
+        <v>2</v>
+      </c>
+      <c r="AI20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="11"/>
+      <c r="AL21" s="11"/>
+      <c r="AM21" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="AI3:AM3"/>
+    <mergeCell ref="AD3:AH3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:AC3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>